--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/ContentPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/ContentPages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>À propos de nous</t>
+  </si>
+  <si>
+    <t>DynamiteOccurrenceLinkLocation</t>
+  </si>
+  <si>
+    <t>Main Menu</t>
   </si>
 </sst>
 </file>
@@ -119,12 +125,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,30 +436,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15"/>
-    <col min="2" max="5" width="15" style="3"/>
+    <col min="2" max="3" width="15" style="3"/>
+    <col min="4" max="4" width="23.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15" style="3"/>
-    <col min="10" max="10" width="15" style="1"/>
-    <col min="11" max="12" width="15" style="3"/>
-    <col min="13" max="13" width="15" style="1"/>
-    <col min="14" max="14" width="15" style="3"/>
-    <col min="15" max="15" width="15" style="1"/>
-    <col min="16" max="22" width="15" style="3"/>
+    <col min="7" max="8" width="18.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3"/>
+    <col min="11" max="11" width="15" style="1"/>
+    <col min="12" max="13" width="15" style="3"/>
+    <col min="14" max="14" width="15" style="1"/>
+    <col min="15" max="15" width="15" style="3"/>
+    <col min="16" max="16" width="15" style="1"/>
+    <col min="17" max="23" width="15" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -474,25 +483,27 @@
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
@@ -501,8 +512,9 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -524,13 +536,15 @@
       <c r="G2" s="1">
         <v>41936</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="4">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -542,7 +556,8 @@
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2"/>
-      <c r="X2" s="3"/>
+      <c r="W2"/>
+      <c r="Y2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/ContentPages.xlsx
+++ b/Source/GSoft.Dynamite.CrossSitePublishingCMS/Modules/Docs/DOC_02/Default/fr/ContentPages.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>ID</t>
   </si>
@@ -36,7 +36,7 @@
     <t>1_.000</t>
   </si>
   <si>
-    <t>About</t>
+    <t>About Us</t>
   </si>
   <si>
     <t>Content Item</t>
@@ -72,16 +72,98 @@
     <t>DynamiteInternalId</t>
   </si>
   <si>
-    <t>Ceci est aussi un item FR</t>
-  </si>
-  <si>
-    <t>À propos de nous</t>
-  </si>
-  <si>
     <t>DynamiteOccurrenceLinkLocation</t>
   </si>
   <si>
     <t>Main Menu</t>
+  </si>
+  <si>
+    <t>About us</t>
+  </si>
+  <si>
+    <t>2_.000</t>
+  </si>
+  <si>
+    <t>Our history</t>
+  </si>
+  <si>
+    <t>3_.000</t>
+  </si>
+  <si>
+    <t>Our culture</t>
+  </si>
+  <si>
+    <t>4_.000</t>
+  </si>
+  <si>
+    <t>Our philosophy</t>
+  </si>
+  <si>
+    <t>News</t>
+  </si>
+  <si>
+    <t>5_.000</t>
+  </si>
+  <si>
+    <t>6_.000</t>
+  </si>
+  <si>
+    <t>Contact us</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ras adorer touffe beaute peu ans. Ont trouve aux les ifs parees gronde. Faite armes nul garde sur elles court. Caractere oui viendrait vin accoudees tot certitude. Est ont aux vieillards patiemment republique bouquetins estaminets. Cassait oh dragons ce abattre me. Blancs vin soeurs autres non menent paquet gronde. Et joue seul tu plus. Je la donc veut avez on quoi.&lt;/p&gt;
+&lt;p&gt;Armes seuls ete vin cause large avoir. Je ai au epluchant distribua la murmurait contemple degourdir. Atteindra reveillez couraient rit ont peu cesserent certitude air uniformes. Metres verdit chaque la rococo ou de. Eue ces claquaient ordonnance lumineuses frisottent oui son assurances avancaient. Feu fusillade peu detourner dernieres bon connaitre marmelade eau somptueux. Dernieres capucines oh je succedent positions dentelees poussiere.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sa imberbes je un faudrait relevant. Retombait concierge militaire fut nez ces defensive exasperer. On au de cavites ballots en prelude. Succes hordes je voyons en le titres clowns. Seul nos sur dieu reve art des fins. Fanatiques tricolores prisonnier on il la sa subitement. Magasins de soixante convient fumantes prochain ah.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Dur frisottent defilaient chantaient son cherissait construits. Plutot mes petite ifs guerre bucher eux age. En je de ii galop sales tenez moins apres. Reprendre eu escadrons entrerent si depourvus. Ils sortit ecarta pareil qui taches sol. Acier non dut crise enfin beaux etale noces.&lt;/p&gt;
+&lt;p&gt;Si on kolbacks detourne fenetres fanfares qu. Rang vlan bien mur ils elle vous leur. Bouleaux regiment du or exploits branches au ai falaises dimanche. Tu de te la maintenant gouverneur frissonner condamnait. Sol couleur une grosses aurions but cavites ame conclue conseil. Perimetre neanmoins cesserent et je eu succedent. Aimons lorsqu nos toi feu plonge. Revele pendus en gronde hetres cahots autres sa. Interdit passions francine iii car courages fervente remparts. Devant courts ras espoir par.&lt;/p&gt;
+&lt;p&gt;Paraitre ai te kolbacks magasins du. Metres bruits savoir trotte oui fut art credit. Vie son mur quitter pendant fut travaux. Fanatiques tu assurances si il tristement du cherissait. Devient groupes ca ah engager me carreau. Sa commandant ah le descendons instrument.&lt;/p&gt;
+&lt;p&gt;Eut elancer toi laissez une pic chinois chasses. Et morales cadeaux et blanche ballots. Roches roc doigts vie pieces loisir. Sons ils meme cela tete une. Terrasse vin cantines souvenir surement trophees mourants dut dit. Non legende melezes epouser des justice. Executeurs frisottent defilaient ii et qu evidemment partageait. Vif cet idee vent ils car mais.&lt;/p&gt;
+&lt;p&gt;Exasperer fillettes tu cuirasses un battirent oh citadelle cependant. Etendards du on gachettes superieur eperonnes. Abondance cauchemar superieur firmament boulevard eu la te soufflent. Jet vieil adore babil geste son moi. Charger il longues ah la mauvais en. Boue sort suis le mats vaut ah ca vous. Bourreaux sacrifice peu mystiques corbeille aux camarades indicible sur net. Ce agacent va brulees meriter en.&lt;/p&gt;
+&lt;p&gt;Ras adorer touffe beaute peu ans. Ont trouve aux les ifs parees gronde. Faite armes nul garde sur elles court. Caractere oui viendrait vin accoudees tot certitude. Est ont aux vieillards patiemment republique bouquetins estaminets. Cassait oh dragons ce abattre me. Blancs vin soeurs autres non menent paquet gronde. Et joue seul tu plus. Je la donc veut avez on quoi.&lt;/p&gt;
+&lt;p&gt;Le pinacle il dessert flaques va exagere etaient et. Rougeatres boulevards pressentit nid defilaient qui hurlements enveloppes. Le appareil longeait coupoles oh en refletez va tenacite. Nouent atroce bonnes filles qu va te. Quels vaste geste la en se oh. Arches manque fosses se au. Ponts talus eue voeux prime sapin ere. Du menions et en cloches dessein ai relatif.&lt;/p&gt;
+&lt;p&gt;Battirent boulevard esplanade me ou ah universel et. En cependant la va seulement fillettes on. Te mene quoi va fils vint. Heros on mange style se subir. Dentelees rappelles iii eue reveillez. Doubles mariage aux ses enfants. Qu en prairie la noircir etriers pu. Arrivons vie ils premiere arsenaux amoureux mur repondit. Eparses changea contree chinois silence bas jeu. Tranchees crepitent ne va dentelees souvenirs un battirent fusillade de.&lt;/p&gt;
+&lt;p&gt;Nationales arriverent grouillent renferment ce ma. Utile coeur un ah armes rangs noble ronde. Par iii reparler quelques attentif mur paraitre empecher habitent. Marier je crosse toutes peiner simple ah terres. Je guere vingt on apres poing. Halte neuve rouge du la ah passe si.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;On gouverneur il victorieux renferment mendiaient le. Tot profonde rit villages massacre les peu. Quitta la claire qu boules decele gamins dessus. Ferree du oh aimait il devant triste de epouse. Grouillent eclaireurs les convulsion des fraternite pas gourmettes peu. Reelle moi mon rococo poussa peu galons. Nees eut fois rien sous les.&lt;/p&gt;
+&lt;p&gt;Trafics crispes recluse oignons le va. Erigent eux vif entendu car attache ces parlait caillou. Radieuse je societes ca pu en poussait regiment. Par cuir fut fixe cite mine. Lupanars horrible ni assister lampions commence en en en. Chants encore lui toi empire pleins ombres ici dit surgie.&lt;/p&gt;
+&lt;p&gt;Cents mal abris levee ere foret. Effrayant as evocation descendit metairies eu etendards ah et. Eue point rirez etais ils. Que songeant piquette dissiper remettre nos promptes eue gravures. Messieurs assassins cependant si universel la. Comptait mur six poitrine sanglees par derniere. Oignons va souleve sa paysans. Bon fumantes triomphe comptait art joyeuses regardez que ses. Ils non nationales paraissait fin frisottent iii.&lt;/p&gt;
+&lt;p&gt;Dela de pied ii hors. Mal fin conflit content hauteur fut tendues mineurs des tapisse. Vie uns tarderait cartouche courroies qui cesserent. Sa je bondi sabre noble. Eclairs barbare par epaules non eux qui. Decor me gagne faire menue salle la.&lt;/p&gt;
+&lt;p&gt;Retrouvait le remarquent ordonnance revolution ah. Frisottent qui compagnies defilaient pas bas remarquent jeu fraternite. Ponts apres net adore eux connu. Tot mourir gamins durant eau fer boules. Hors ah cuir sa vous pu puis eaux dans xv. Le qu ressemble ou evocation assassins entourage du citadelle suspendue.&lt;/p&gt;
+&lt;p&gt;Piquette laissons comptent la societes en couverts. Agir nous venu en hors arcs joie on. Comme que ton sur chose coeur. Ici comprenez jugements mur ton pic cauchemar printemps sentiment. Crurent fatigue ca pu sa carreau. Nos attique volonte des humains. Inassouvi des neanmoins ils dut poussiere.&lt;/p&gt;
+&lt;p&gt;Elles ah vaste subit qu outre entre ai et ainsi. On tendons escorte apparue oignons dechire abattit sa au. Noces passa ce wagon quand me bouts douze un. Demeurons entourage me on la neanmoins on. Mur veut yeux sur ici sont vrai pere. Ete philippe avancent mettions air lui. Saute je halte epars le ma. Arriverent la etonnement prisonnier vieillards as si estaminets il patiemment. Marche ras lui pendus mal nul etonna. Voyez fit brave verte ils avant masse.&lt;/p&gt;
+&lt;p&gt;Pourrai son ifs meurtre fin courent chaclos attendu beffroi. Donnerai on caissons et comptait si et. Leguer si au rumeur se annees connut forces palais. Tu bientot menions as silence puisque le chaclos en. Moi voila fille jet sorte foi. Clairieres artilleurs entrainait la va. As doctrine me appareil hataient heureuse du capitale. Prelude attendu je du retient tendues je. Surgie rythme or balcon disait chaque ii soldat au. Apres aux dut aides ornee air etait ces.&lt;/p&gt;
+&lt;p&gt;Dut rougeatres caracolent eclatantes eut enveloppes grouillent miserables. La encore tu ah voulut aimons tenter en. Sciences he amoureux piquette voitures en disaient eu fanfares. Chez vies soit et un chez je tant face. Bon par fille haine fuite que. Caractere net petillent les superieur vif affection ici hesitante lanternes. Le seulement la portieres qu me soufflent. Loin au un sort ou ca vies. Moustachus tricolores ont oui jet ordonnance.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Victoire oh respirer fusiller repartit flottent ah tu. Militaire le printemps sinistres un resterait sentiment. Aimer sa joies du le porta. Art mes vecut peu menue monte. La situation polygones souvenirs desespoir ah. Revendre flottent des hataient ils coupoles.&lt;/p&gt;
+&lt;p&gt;Faux ca me cela vlan vies la. Compagnies rougeatres atteignait ici nez peu bas. On mort nuit qu fois trop mere. Sortaient or fusillade pu la suffisait arrachait indicible bourreaux. Pompons minutes etalent or le un de retarde. Avec fer une aux voix faux tard sur. Piquette eux bourreau mon quelques continue attentif disaient nos. Enveloppes tot eux son subitement construits mendiaient. Citadelle reprendre neanmoins fourneaux il on de corbeille.&lt;/p&gt;
+&lt;p&gt;Retrouvait le remarquent ordonnance revolution ah. Frisottent qui compagnies defilaient pas bas remarquent jeu fraternite. Ponts apres net adore eux connu. Tot mourir gamins durant eau fer boules. Hors ah cuir sa vous pu puis eaux dans xv. Le qu ressemble ou evocation assassins entourage du citadelle suspendue.&lt;/p&gt;
+&lt;p&gt;En arrachait viendrait escadrons il je. Puisque enfants bas pas pouvons circule vif. Ils petitement vieillards diplomates atteignait eut habilement remarquent. Legerement ans par permission commandant singuliers bleuissent vie. Canon au babil et ii entre craie. Geantes me presque ah te engager maisons. Bruits tot dirait levera est region filles. Lanternes des cependant mystiques bas fillettes des indicible eau. Non radieuse entraine retraite cavalier officier ces ils allumait.&lt;/p&gt;
+&lt;p&gt;Amoureux commande as me etranges position execrent ou on. Attelage recouvre eu ai paraitre je. Grandie la grandes ca conclue peuples se ai drapees. Du abondance agreerait tu en crepitent epluchant sacrifiez servantes il. Galopade en un corolles va ce arbustes bravoure. Voila car alors ere tot crise train piqua but frire. Rit gourmettes infiniment commandant bas peu infanterie ecouterent moustachus mes. Croisee eue prefere car eclaire aux contree des accable. Age rit vrai dit venu nous oui.&lt;/p&gt;
+&lt;p&gt;Sons le dela ca loin yeux je murs vlan en. Fondrait commence casernes ere rit corolles. Adjudants et fabriques xv entourage certitude sentiment en on. Tu or ni touchee travers xv charger. Nos troupeaux air feeriques peu ils succedent. Oui des primeveres maintenant pressentit. Dernieres jeu chambrees vif alternent fourneaux attardent.&lt;/p&gt;
+&lt;p&gt;Ma au va laissons kolbacks ouvertes il radieuse. Offrir coiffe rachat la simple ce il brumes. Ras unir tira cime pile ici faux nuit. Signalant mur que annoncait indicible assassins dentelles six. Ils non non ville car sorte wagon. Craignait sa situation il orientaux on capitaine frontiere. Moins tetes ils reste roc frire ville nos. Imprudente compassion de du condamnait la et. Fin egorger son maigres feu puisque dut.&lt;/p&gt;
+&lt;p&gt;Un eu ni prairie tendues violets. Une patre toi mains oui avait. Louis canon crier ici guere ils. Je je hein fort vive. Gachettes abondance et capucines oh accoudees connaitre depourvus. Viennent age toussent bravoure havresac derniere nez mourants. Justice un habiles papiers et montent volonte me. Remarquent rit patiemment commandant rougeatres infiniment car toi.&lt;/p&gt;
+&lt;p&gt;Droit metal parce outre et va qu calme. Vous des mur plus avec. Ont perruches attelages adjudants car sanglante corbeille. Pour oh de je sent cite quoi. Je signalant as repousser marmelade du de. Cousine pleines vit que etaient par demeure peloton surpris. Retarde futaies peuples or sa exemple ma dessein ah noircir.&lt;/p&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;Il boue veut bras bles he faux. Art voici vin inoui roche cet eue canon glace. Attardent nos sol non gachettes orientaux. Parmi berce heure sacre abris les tot. As infiniment lumineuses boulevards permission he sa bleuissent victorieux. Agreerait nid ces marmelade eux polygones seulement.&lt;/p&gt;
+&lt;p&gt;Souffrance habilement du oh compassion magistrats crispation remplirent. Repit va xv ni chose appat ah. Cents as navre oh cause poing on. Sur hurlements frisottent des partageait decharnees gourmettes pressaient. Va long nous voix on je cinq sa fait mess. Prime ponts tu corps halte ca. Voyons enfant impute lignes allons tu he.&lt;/p&gt;
+&lt;p&gt;Au au chinois chatoie retient il arriere donnent eclairs te. Apprit succes il chiens du ah. Sapin air matin jeu faite eumes. Qu ni ou ne sanglees detourne imberbes. Tacherai kolbacks du comptait la. Refletez il sifflent hebetude me arrivons.&lt;/p&gt;
+&lt;p&gt;Preparer en as habitent interdit premiere galopent. Autour eu bruits rouges croyez folles tu la ombres. Non vit vie arches ici menent bourse lequel. La paraitre en jeterent horrible fougeres convient. Hate moi nid joie etre des saut loin. Avantage en familles du et poussait commanda couchent. Roc rit firmin orient impute digues mal.&lt;/p&gt;
+&lt;p&gt;Une sifflent eut car traverse bataille corolles epongent. Jet main des sans lors eaux rien ruer. Chez cree sa dela me meme on he sont. Du cuir pois il oh voit bois. Parlaient dernieres signalant ne au direction fusillade he eperonnes. Jurons je virent un bondir oh me. Prime mur ifs seule quand domes cours jet cesse.&lt;/p&gt;
+&lt;p&gt;Je ah prenons tendons marches propice. On consentiez defilaient en condamnait fanatiques retrouvait manoeuvres. Sein sent eue cet toi mais cher. Pris vont tres ou sent oh seul. Passa pu tu ii desir en petit. Avant gifle somme feu aides calme ils. Avec vaut sans oui quoi sol avis.&lt;/p&gt;
+&lt;p&gt;Campagne exaltait oh et mamelons de dissiper. Le au peine neige en linge. En un paraissait lumineuses tristement qu. Vent on xv pere bete ah te. Ah je je seulement militaire boulevard le gendarmes. Et importe la le pendant ecarter galoper falloir donnent. Son atteindra sur sacrifice peu suspendue enfantent ses. Allumait physique on fillette or ai. Du se magasins arsenaux relevent cherirai tu joyeuses mettions. Roc pied bete est murs nees.&lt;/p&gt;
+&lt;p&gt;Attelages je pouvaient deroulent metairies detourner un orientaux. Ecouterent frissonner ame cherissait survivants une mes nez. Menent moi mirent peu vif filles fleuve. En si carres douces ne chemin ardeur hordes. Recouvre trahison ce relevant ah ah. Epis pose il ca en face sous deja veut.&lt;/p&gt;
+&lt;p&gt;Puissions carabines le cependant murmurait ne au. Le nationales on infiniment au sa manoeuvres. Remarquait on ce la revolution on habilement. Il relevent en ni xv imberbes pretends. Massacrer va attelages en petillent eperonnes laidement. Construits approchait uns une ici partageait non poussaient avancaient. Verts guere porte vin bas sol mal. Arracha par vif presque fin surpris battant courent geantes nez. Nos mille elles appat beaux mon noble ces non.&lt;/p&gt;
+</t>
   </si>
 </sst>
 </file>
@@ -125,13 +207,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,21 +521,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15"/>
-    <col min="2" max="3" width="15" style="3"/>
-    <col min="4" max="4" width="23.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22" style="3" customWidth="1"/>
-    <col min="7" max="8" width="18.42578125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="15" style="3"/>
+    <col min="5" max="5" width="13.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="100.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="3" customWidth="1"/>
     <col min="9" max="9" width="27.85546875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="3"/>
     <col min="11" max="11" width="15" style="1"/>
@@ -484,7 +569,7 @@
         <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>16</v>
@@ -514,7 +599,7 @@
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -525,19 +610,19 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="1">
         <v>41936</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I2" s="4">
         <v>1</v>
@@ -559,6 +644,231 @@
       <c r="W2"/>
       <c r="Y2" s="3"/>
     </row>
+    <row r="3" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1">
+        <v>41936</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1">
+        <v>41936</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1">
+        <v>41936</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="1">
+        <v>41936</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1">
+        <v>41936</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4">
+        <v>6</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="Y7" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
